--- a/public/downloadedFile/sample.xlsx
+++ b/public/downloadedFile/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\project\2025-05-personalReceipt\public\downloadedFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FC7CBE-C887-46B9-99FD-B3929D680F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7272C-A576-490D-BB69-8A222F1619BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>receiptResaon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +97,10 @@
   </si>
   <si>
     <t>E123231234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiptReason</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -471,60 +471,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
       <c r="E2">
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="K2">
         <v>20250606</v>
